--- a/output/inference_results/test_sheets/batch_003/test_sheet (25).xlsx
+++ b/output/inference_results/test_sheets/batch_003/test_sheet (25).xlsx
@@ -451,7 +451,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0--0.2</t>
+          <t>0-0.2</t>
         </is>
       </c>
     </row>
@@ -468,7 +468,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0--6.4</t>
+          <t>0-6.4</t>
         </is>
       </c>
     </row>
